--- a/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.07616910326669</v>
+        <v>3.956852911640109</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.63365316587536</v>
+        <v>13.6161414145071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.23224835975214</v>
+        <v>15.48482415617749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05239743041907337</v>
+        <v>-0.04648784835157029</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1867870044616823</v>
+        <v>0.1525647501877107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.382176839965521</v>
+        <v>0.3615042873375766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4206822139139377</v>
+        <v>0.3870883470937855</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1162386716341878</v>
+        <v>-0.1145299298639637</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.87237785562142</v>
+        <v>22.4771478053358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32.64869789867932</v>
+        <v>33.37598460121443</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37.60657332604894</v>
+        <v>35.85861576357271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.054181120881553</v>
+        <v>9.110961229260715</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.519234722580111</v>
+        <v>1.49848305573168</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.32170210535074</v>
+        <v>1.305762421863338</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.46492884544112</v>
+        <v>1.395687128524279</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.318084106325959</v>
+        <v>5.572667127970716</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.1652000744039028</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.074807971276312</v>
+        <v>1.074807971276311</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>10.98340614835373</v>
+        <v>10.83364503939461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>18.0489868870587</v>
+        <v>18.42792576756998</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.691791734600648</v>
+        <v>6.694329507315466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.906688801085</v>
+        <v>5.181046646709319</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1750428726620378</v>
+        <v>0.170175006142442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2451812358481344</v>
+        <v>0.2573289412820502</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07276114456923992</v>
+        <v>0.08618773604172644</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3550543494704157</v>
+        <v>0.4060126046063453</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>25.21817577651571</v>
+        <v>25.61474558436133</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>29.89355737388473</v>
+        <v>30.50509339997304</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.62561446309706</v>
+        <v>19.6336031359043</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.91946958651811</v>
+        <v>15.03795117022765</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4624227643464875</v>
+        <v>0.4779471384269066</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4757788350078778</v>
+        <v>0.4881795255321442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2698847458221552</v>
+        <v>0.2861978620340035</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.075552138020321</v>
+        <v>2.093574372120442</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.622482842465416</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5.0023046754568</v>
+        <v>5.002304675456804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1499552075971058</v>
@@ -849,7 +849,7 @@
         <v>0.1058888410314985</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2921226889299972</v>
+        <v>0.2921226889299974</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.444776767210951</v>
+        <v>3.247403673366365</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.57267265654299</v>
+        <v>16.66500946449008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.65648242046489</v>
+        <v>2.855302720649476</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6291166067416637</v>
+        <v>0.3253204911918942</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05313471594671427</v>
+        <v>0.04998499958493734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2165406314568245</v>
+        <v>0.2161972926661335</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02255492440717998</v>
+        <v>0.03886746545085427</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02838731518386047</v>
+        <v>0.01013028431511324</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.17788432336396</v>
+        <v>14.91953337950396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.06893870036626</v>
+        <v>24.54932247771208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.58567730415601</v>
+        <v>12.89609957214903</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.782308498484859</v>
+        <v>9.146763844424544</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2657282224499579</v>
+        <v>0.2610530823272426</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3579511088539662</v>
+        <v>0.3488354180354619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1803456750508992</v>
+        <v>0.1865544743643283</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.608196097850041</v>
+        <v>0.6162356601831911</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.20991140747183</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.946710434936968</v>
+        <v>2.946710434936971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3055163759348405</v>
@@ -949,7 +949,7 @@
         <v>0.1985789089966493</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2722542735540426</v>
+        <v>0.2722542735540429</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.011835557415825</v>
+        <v>3.363546739500066</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>15.02127913393183</v>
+        <v>15.12839256680193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.113473617925936</v>
+        <v>2.358892618571936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3168829361635726</v>
+        <v>-0.2219921146311589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.09137281454288362</v>
+        <v>0.07397022045286797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2192026032249005</v>
+        <v>0.2227240446120222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03812224017639074</v>
+        <v>0.04028348160393776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02849185612425042</v>
+        <v>-0.01410688894869505</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.73405730070351</v>
+        <v>21.23934568154155</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>28.73409655073765</v>
+        <v>28.80028949798788</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18.52575498910584</v>
+        <v>17.45531889695442</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.002416188014796</v>
+        <v>6.002698047579504</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5991039842773183</v>
+        <v>0.58585349674299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4872069013938032</v>
+        <v>0.4799793868017831</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3994932503846018</v>
+        <v>0.3673568500384074</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6802629328769697</v>
+        <v>0.6735239277218251</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-2.815762097537455</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.519265656271434</v>
+        <v>2.519265656271435</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7451057250285712</v>
@@ -1049,7 +1049,7 @@
         <v>-0.08614044480588759</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4412063324682387</v>
+        <v>0.441206332468239</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.19835281959326</v>
+        <v>3.425694246107404</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.00679863662408</v>
+        <v>-10.57485137830822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.30534563208023</v>
+        <v>-15.25329747849415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4303674346773421</v>
+        <v>0.001141539669503841</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1542985315372947</v>
+        <v>0.1316453653684384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2188414178192789</v>
+        <v>-0.2101701159412269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3639562602354782</v>
+        <v>-0.3590051409559554</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.06332570656686425</v>
+        <v>-0.009730041053428945</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.32415962185146</v>
+        <v>24.76652609131824</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.49035564739801</v>
+        <v>10.67054875049918</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.544157101091349</v>
+        <v>7.899671620427845</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.817358264827072</v>
+        <v>5.095528077093598</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.76175053510032</v>
+        <v>1.920516184568153</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2700503941604154</v>
+        <v>0.2670475187114897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3361715736748145</v>
+        <v>0.3288687504717168</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.045689527221007</v>
+        <v>1.140094708243059</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.110487250079468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.156803896135933</v>
+        <v>3.156803896135931</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.319653490129632</v>
@@ -1149,7 +1149,7 @@
         <v>0.6312271149837149</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8045642642083102</v>
+        <v>0.8045642642083098</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.273182455522365</v>
+        <v>3.948536930479071</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.379407071908748</v>
+        <v>-1.444737020848548</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2679980573225242</v>
+        <v>0.5856203987821718</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6751985375783506</v>
+        <v>0.8264597307155372</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3711964280869141</v>
+        <v>0.4563729682319472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1082525873289321</v>
+        <v>-0.1240531094174401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0252638064469764</v>
+        <v>0.05231656251351274</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1158831741154033</v>
+        <v>0.115419518662487</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.20099874416954</v>
+        <v>12.11342475250356</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.93605608810217</v>
+        <v>8.9839617334303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9.898065355619419</v>
+        <v>10.40568538889121</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.31489719973476</v>
+        <v>5.446647229409788</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.91334089692031</v>
+        <v>2.851710608237433</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.185858032859893</v>
+        <v>1.121866648349847</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.748866206413757</v>
+        <v>1.707127787041828</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.997154635705132</v>
+        <v>1.813749209665571</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>0.7486434868869434</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.05032980892416029</v>
+        <v>0.0503298089241603</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.091836285103294</v>
+        <v>-7.130096087438287</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.541637207261378</v>
+        <v>-1.795700172519046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6088741321225873</v>
+        <v>0.6029397418206315</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.418311730861708</v>
+        <v>-2.838342198066639</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5328819153147308</v>
+        <v>-0.5468150974316339</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2230090758153404</v>
+        <v>-0.1700720154748536</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04187722168659203</v>
+        <v>0.03304106596730699</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2917834017868444</v>
+        <v>-0.3222987188084367</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.411333086802303</v>
+        <v>3.145798980079024</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.254039465805466</v>
+        <v>8.651964697527371</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.37895910861013</v>
+        <v>10.52333485412221</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.326238273101879</v>
+        <v>3.371649181723371</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5311567708756985</v>
+        <v>0.4165555861144882</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.536849220390322</v>
+        <v>1.742149326713096</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.906448257445519</v>
+        <v>1.959157257221805</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6943812734069339</v>
+        <v>0.6966023497334193</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>7.06343100594245</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.995068453532523</v>
+        <v>3.99506845353252</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2447004917849937</v>
@@ -1349,7 +1349,7 @@
         <v>0.1598120980000941</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4505698123926681</v>
+        <v>0.4505698123926677</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.948571113499551</v>
+        <v>5.822369486978942</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>9.22224108063069</v>
+        <v>9.247014425166332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.983926817325663</v>
+        <v>3.903708212866944</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.583433366571248</v>
+        <v>2.619879309000922</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1526827317610396</v>
+        <v>0.1497213376571157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1815353334002002</v>
+        <v>0.1802084357818109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08883359455911483</v>
+        <v>0.08609934881348835</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2649700676962833</v>
+        <v>0.2679124763326185</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.23745216471303</v>
+        <v>11.80295032938713</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>15.00061698791231</v>
+        <v>15.43740880437664</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.30340699491546</v>
+        <v>10.12637376304514</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.439203231163221</v>
+        <v>5.488648811446573</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3502811548931603</v>
+        <v>0.3333227627771707</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3138218410017175</v>
+        <v>0.3266798412701926</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2435120910931885</v>
+        <v>0.241309642043383</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6730716777040975</v>
+        <v>0.6747094603852529</v>
       </c>
     </row>
     <row r="28">
